--- a/predictions/прогнозы_SARIMA_111.xlsx
+++ b/predictions/прогнозы_SARIMA_111.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17841012.48122888</v>
+        <v>19615928.88267333</v>
       </c>
       <c r="C2" t="n">
-        <v>22197676.8738625</v>
+        <v>21307903.28952093</v>
       </c>
       <c r="D2" t="n">
-        <v>23155999.93570599</v>
+        <v>20029645.29590948</v>
       </c>
       <c r="E2" t="n">
-        <v>21795356.73333577</v>
+        <v>18569666.0348991</v>
       </c>
       <c r="F2" t="n">
-        <v>20056108.22207943</v>
+        <v>19824657.42210652</v>
       </c>
       <c r="G2" t="n">
-        <v>21535650.56778172</v>
+        <v>20485316.18635859</v>
       </c>
       <c r="H2" t="n">
-        <v>21885625.55694874</v>
+        <v>22368975.06896152</v>
       </c>
       <c r="I2" t="n">
-        <v>23703797.15612818</v>
+        <v>21393594.31920686</v>
       </c>
       <c r="J2" t="n">
-        <v>22753383.39414842</v>
+        <v>21583605.77524649</v>
       </c>
       <c r="K2" t="n">
-        <v>23425013.26647716</v>
+        <v>22173892.5600514</v>
       </c>
       <c r="L2" t="n">
-        <v>23406007.62958041</v>
+        <v>22533332.12877637</v>
       </c>
       <c r="M2" t="n">
-        <v>23753487.07937133</v>
+        <v>18472168.48952362</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14024008.90171431</v>
+        <v>11328410.63142873</v>
       </c>
       <c r="C3" t="n">
-        <v>13207921.16123728</v>
+        <v>16862586.06462118</v>
       </c>
       <c r="D3" t="n">
-        <v>18155310.48088511</v>
+        <v>12608201.89828105</v>
       </c>
       <c r="E3" t="n">
-        <v>14690808.98406873</v>
+        <v>15194647.56969387</v>
       </c>
       <c r="F3" t="n">
-        <v>16734052.906557</v>
+        <v>13532517.80660627</v>
       </c>
       <c r="G3" t="n">
-        <v>15443095.46497676</v>
+        <v>12714833.68745786</v>
       </c>
       <c r="H3" t="n">
-        <v>14830117.78119811</v>
+        <v>14719017.02870602</v>
       </c>
       <c r="I3" t="n">
-        <v>16352002.59640008</v>
+        <v>17370711.97894053</v>
       </c>
       <c r="J3" t="n">
-        <v>18664813.81394044</v>
+        <v>17307491.84268842</v>
       </c>
       <c r="K3" t="n">
-        <v>18904783.86280742</v>
+        <v>20067522.2755475</v>
       </c>
       <c r="L3" t="n">
-        <v>21200676.85135897</v>
+        <v>19277949.56396647</v>
       </c>
       <c r="M3" t="n">
-        <v>21504577.80194034</v>
+        <v>15384632.36853785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18488746.68319171</v>
+        <v>64235870.12178497</v>
       </c>
       <c r="C4" t="n">
-        <v>23789548.75143634</v>
+        <v>71182442.00098011</v>
       </c>
       <c r="D4" t="n">
-        <v>17855121.85204617</v>
+        <v>78793009.19850923</v>
       </c>
       <c r="E4" t="n">
-        <v>23503699.87790488</v>
+        <v>87594304.4134374</v>
       </c>
       <c r="F4" t="n">
-        <v>18454431.54581256</v>
+        <v>99024733.18586569</v>
       </c>
       <c r="G4" t="n">
-        <v>24943647.25500564</v>
+        <v>110628762.0530837</v>
       </c>
       <c r="H4" t="n">
-        <v>21313096.6477705</v>
+        <v>127035485.1566872</v>
       </c>
       <c r="I4" t="n">
-        <v>29496305.28539884</v>
+        <v>138509045.2402855</v>
       </c>
       <c r="J4" t="n">
-        <v>23066655.46564344</v>
+        <v>156205460.5784945</v>
       </c>
       <c r="K4" t="n">
-        <v>34549623.32233392</v>
+        <v>159707096.2350373</v>
       </c>
       <c r="L4" t="n">
-        <v>27190573.65524881</v>
+        <v>180196003.8150122</v>
       </c>
       <c r="M4" t="n">
-        <v>36488076.67292857</v>
+        <v>200226320.1876703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22080818.89340061</v>
+        <v>28233732.21341196</v>
       </c>
       <c r="C5" t="n">
-        <v>21853895.55588457</v>
+        <v>26379207.75156213</v>
       </c>
       <c r="D5" t="n">
-        <v>21875290.40948579</v>
+        <v>29176923.17600873</v>
       </c>
       <c r="E5" t="n">
-        <v>22032719.58837808</v>
+        <v>33225294.99638633</v>
       </c>
       <c r="F5" t="n">
-        <v>23375456.15080077</v>
+        <v>31904796.22476939</v>
       </c>
       <c r="G5" t="n">
-        <v>26598710.86631918</v>
+        <v>32357527.01854146</v>
       </c>
       <c r="H5" t="n">
-        <v>29203756.1126147</v>
+        <v>32948677.54477589</v>
       </c>
       <c r="I5" t="n">
-        <v>36048847.07492914</v>
+        <v>32611138.11220566</v>
       </c>
       <c r="J5" t="n">
-        <v>48801459.52157182</v>
+        <v>34866861.09847075</v>
       </c>
       <c r="K5" t="n">
-        <v>47617047.32378742</v>
+        <v>39164867.7432752</v>
       </c>
       <c r="L5" t="n">
-        <v>47935499.94300521</v>
+        <v>62588230.9722973</v>
       </c>
       <c r="M5" t="n">
-        <v>61225910.21634886</v>
+        <v>17255694.84251286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6064356.492005235</v>
+        <v>3928826.515735027</v>
       </c>
       <c r="C6" t="n">
-        <v>11471726.30551585</v>
+        <v>5125946.035844442</v>
       </c>
       <c r="D6" t="n">
-        <v>8919039.087063702</v>
+        <v>1800005.266289362</v>
       </c>
       <c r="E6" t="n">
-        <v>9974608.279214658</v>
+        <v>5858638.722772419</v>
       </c>
       <c r="F6" t="n">
-        <v>12919677.88561592</v>
+        <v>78276.28816192411</v>
       </c>
       <c r="G6" t="n">
-        <v>12462682.00806731</v>
+        <v>3052336.127765785</v>
       </c>
       <c r="H6" t="n">
-        <v>11815714.10643043</v>
+        <v>988062.1887868338</v>
       </c>
       <c r="I6" t="n">
-        <v>12545129.24698325</v>
+        <v>1133303.122563986</v>
       </c>
       <c r="J6" t="n">
-        <v>12406239.11706083</v>
+        <v>-1324169.64659445</v>
       </c>
       <c r="K6" t="n">
-        <v>12147999.0491876</v>
+        <v>2238607.732582882</v>
       </c>
       <c r="L6" t="n">
-        <v>14200938.74496675</v>
+        <v>-337273.0816809484</v>
       </c>
       <c r="M6" t="n">
-        <v>24920660.63927913</v>
+        <v>-838993.9358394793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1162578.012488433</v>
+        <v>14041319.81538647</v>
       </c>
       <c r="C7" t="n">
-        <v>3502427.837303065</v>
+        <v>14998640.5521394</v>
       </c>
       <c r="D7" t="n">
-        <v>2986547.423159513</v>
+        <v>14301821.23708172</v>
       </c>
       <c r="E7" t="n">
-        <v>3327986.655609507</v>
+        <v>14926732.97018874</v>
       </c>
       <c r="F7" t="n">
-        <v>1980497.920634728</v>
+        <v>13685105.76241941</v>
       </c>
       <c r="G7" t="n">
-        <v>4537047.256914421</v>
+        <v>14795295.60070512</v>
       </c>
       <c r="H7" t="n">
-        <v>2726453.869353348</v>
+        <v>14290048.03497629</v>
       </c>
       <c r="I7" t="n">
-        <v>3054106.807473833</v>
+        <v>14149876.07991974</v>
       </c>
       <c r="J7" t="n">
-        <v>3536177.075002993</v>
+        <v>14782327.70643351</v>
       </c>
       <c r="K7" t="n">
-        <v>3905115.101034191</v>
+        <v>13805069.86144781</v>
       </c>
       <c r="L7" t="n">
-        <v>3918768.469211044</v>
+        <v>16486500.35095913</v>
       </c>
       <c r="M7" t="n">
-        <v>6154990.636002595</v>
+        <v>15544317.05838655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173880.438995062</v>
+        <v>20967846.5503611</v>
       </c>
       <c r="C8" t="n">
-        <v>1544749.745143496</v>
+        <v>23326250.26200649</v>
       </c>
       <c r="D8" t="n">
-        <v>1373366.240137819</v>
+        <v>22067674.36693493</v>
       </c>
       <c r="E8" t="n">
-        <v>1612940.409177652</v>
+        <v>20753148.92756001</v>
       </c>
       <c r="F8" t="n">
-        <v>1536599.778065262</v>
+        <v>20817333.51775319</v>
       </c>
       <c r="G8" t="n">
-        <v>1792535.649361037</v>
+        <v>20506044.70766537</v>
       </c>
       <c r="H8" t="n">
-        <v>2032614.020001791</v>
+        <v>18929325.92166344</v>
       </c>
       <c r="I8" t="n">
-        <v>1857524.411128398</v>
+        <v>19528369.90712392</v>
       </c>
       <c r="J8" t="n">
-        <v>1679118.745471097</v>
+        <v>20243199.2099962</v>
       </c>
       <c r="K8" t="n">
-        <v>2240057.409745987</v>
+        <v>21475023.38518319</v>
       </c>
       <c r="L8" t="n">
-        <v>2299830.00119935</v>
+        <v>25089480.19214931</v>
       </c>
       <c r="M8" t="n">
-        <v>2129544.034634919</v>
+        <v>16002981.24480149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10840173.47815949</v>
+        <v>23755903.24976527</v>
       </c>
       <c r="C9" t="n">
-        <v>12961673.54039281</v>
+        <v>29148730.4247889</v>
       </c>
       <c r="D9" t="n">
-        <v>15389433.03481503</v>
+        <v>29210455.47581536</v>
       </c>
       <c r="E9" t="n">
-        <v>17048857.14679093</v>
+        <v>32203926.21017804</v>
       </c>
       <c r="F9" t="n">
-        <v>19857657.72168009</v>
+        <v>34604299.42282387</v>
       </c>
       <c r="G9" t="n">
-        <v>19068116.20180479</v>
+        <v>33923795.93200073</v>
       </c>
       <c r="H9" t="n">
-        <v>20821574.48463462</v>
+        <v>36109691.74681551</v>
       </c>
       <c r="I9" t="n">
-        <v>21433670.30243333</v>
+        <v>30176656.65289376</v>
       </c>
       <c r="J9" t="n">
-        <v>21802187.49574951</v>
+        <v>38088775.90131031</v>
       </c>
       <c r="K9" t="n">
-        <v>26632802.41935121</v>
+        <v>37967758.96438591</v>
       </c>
       <c r="L9" t="n">
-        <v>28054632.53743998</v>
+        <v>41295963.96231303</v>
       </c>
       <c r="M9" t="n">
-        <v>33439566.70884497</v>
+        <v>30433895.8484648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12585283.33442101</v>
+        <v>16236875.2123809</v>
       </c>
       <c r="C10" t="n">
-        <v>15167641.95318403</v>
+        <v>18411551.54659642</v>
       </c>
       <c r="D10" t="n">
-        <v>15933421.95104131</v>
+        <v>22525147.22358745</v>
       </c>
       <c r="E10" t="n">
-        <v>17149502.41722126</v>
+        <v>24989679.5931731</v>
       </c>
       <c r="F10" t="n">
-        <v>16616562.51762833</v>
+        <v>25529764.77075475</v>
       </c>
       <c r="G10" t="n">
-        <v>15901647.90060067</v>
+        <v>32122964.40848577</v>
       </c>
       <c r="H10" t="n">
-        <v>15567088.44975537</v>
+        <v>30523003.99645362</v>
       </c>
       <c r="I10" t="n">
-        <v>16644283.08719917</v>
+        <v>26950591.33083066</v>
       </c>
       <c r="J10" t="n">
-        <v>16918174.93540283</v>
+        <v>27615810.2423614</v>
       </c>
       <c r="K10" t="n">
-        <v>15771424.54037511</v>
+        <v>29314244.9626817</v>
       </c>
       <c r="L10" t="n">
-        <v>18085412.49812166</v>
+        <v>30427041.40838666</v>
       </c>
       <c r="M10" t="n">
-        <v>27312109.76403464</v>
+        <v>25759010.4190966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-720868.3012336052</v>
+        <v>19244084.9853467</v>
       </c>
       <c r="C11" t="n">
-        <v>841501.4461164335</v>
+        <v>17919242.1148145</v>
       </c>
       <c r="D11" t="n">
-        <v>571825.881544878</v>
+        <v>19566292.67624795</v>
       </c>
       <c r="E11" t="n">
-        <v>-586951.7687116076</v>
+        <v>19026998.51570642</v>
       </c>
       <c r="F11" t="n">
-        <v>5481237.027580097</v>
+        <v>20663046.27050812</v>
       </c>
       <c r="G11" t="n">
-        <v>-872586.5916914716</v>
+        <v>21512818.81137772</v>
       </c>
       <c r="H11" t="n">
-        <v>-73308.96832976805</v>
+        <v>23484241.25735262</v>
       </c>
       <c r="I11" t="n">
-        <v>-315985.5357130883</v>
+        <v>25602930.83088795</v>
       </c>
       <c r="J11" t="n">
-        <v>-164671.9519934147</v>
+        <v>30355057.02174987</v>
       </c>
       <c r="K11" t="n">
-        <v>-1431814.887790964</v>
+        <v>30020258.97348019</v>
       </c>
       <c r="L11" t="n">
-        <v>343664.7688357162</v>
+        <v>26763073.58842713</v>
       </c>
       <c r="M11" t="n">
-        <v>-742615.9769605498</v>
+        <v>25556221.18573223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>394671.2376337255</v>
+        <v>43702666.60677709</v>
       </c>
       <c r="C12" t="n">
-        <v>1175089.798394501</v>
+        <v>36305093.28760709</v>
       </c>
       <c r="D12" t="n">
-        <v>2040069.728450728</v>
+        <v>41437001.36590563</v>
       </c>
       <c r="E12" t="n">
-        <v>353240.1211653184</v>
+        <v>38607748.27837972</v>
       </c>
       <c r="F12" t="n">
-        <v>-80889.53422134463</v>
+        <v>43222259.57380839</v>
       </c>
       <c r="G12" t="n">
-        <v>-701379.7004687644</v>
+        <v>48734313.7786413</v>
       </c>
       <c r="H12" t="n">
-        <v>201394.5067931644</v>
+        <v>42611586.98648893</v>
       </c>
       <c r="I12" t="n">
-        <v>-764729.5072795714</v>
+        <v>45501089.00269831</v>
       </c>
       <c r="J12" t="n">
-        <v>-559751.4215663539</v>
+        <v>52295959.46015255</v>
       </c>
       <c r="K12" t="n">
-        <v>-862774.4505699789</v>
+        <v>50199975.16946121</v>
       </c>
       <c r="L12" t="n">
-        <v>-638965.1965160739</v>
+        <v>43353689.7265784</v>
       </c>
       <c r="M12" t="n">
-        <v>-713509.8871326762</v>
+        <v>42164145.46062393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3019686.827929362</v>
+        <v>36470517.89980792</v>
       </c>
       <c r="C13" t="n">
-        <v>3032281.612220884</v>
+        <v>33134291.61729658</v>
       </c>
       <c r="D13" t="n">
-        <v>3186647.702077536</v>
+        <v>35903888.80902211</v>
       </c>
       <c r="E13" t="n">
-        <v>3113319.668044753</v>
+        <v>32013171.43840203</v>
       </c>
       <c r="F13" t="n">
-        <v>3320512.368461718</v>
+        <v>36181176.16217379</v>
       </c>
       <c r="G13" t="n">
-        <v>3153162.362723918</v>
+        <v>40788493.97909644</v>
       </c>
       <c r="H13" t="n">
-        <v>3743055.133277509</v>
+        <v>42705050.05577254</v>
       </c>
       <c r="I13" t="n">
-        <v>3564985.011736504</v>
+        <v>43804082.09713926</v>
       </c>
       <c r="J13" t="n">
-        <v>3545019.548433618</v>
+        <v>42783700.34527846</v>
       </c>
       <c r="K13" t="n">
-        <v>4186969.642909309</v>
+        <v>39463206.18471397</v>
       </c>
       <c r="L13" t="n">
-        <v>3719526.350882851</v>
+        <v>36983537.73700948</v>
       </c>
       <c r="M13" t="n">
-        <v>4009675.476343023</v>
+        <v>33682854.89308422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-195653.9572955421</v>
+        <v>1207126.58312084</v>
       </c>
       <c r="C14" t="n">
-        <v>836080.3600157084</v>
+        <v>1301810.122129773</v>
       </c>
       <c r="D14" t="n">
-        <v>1702442.090333477</v>
+        <v>1277472.310303436</v>
       </c>
       <c r="E14" t="n">
-        <v>992757.0119328357</v>
+        <v>1186052.970069028</v>
       </c>
       <c r="F14" t="n">
-        <v>268005.1993218623</v>
+        <v>1824607.419041934</v>
       </c>
       <c r="G14" t="n">
-        <v>242443.9103416988</v>
+        <v>2967912.718584364</v>
       </c>
       <c r="H14" t="n">
-        <v>123578.4206876888</v>
+        <v>1800640.822609935</v>
       </c>
       <c r="I14" t="n">
-        <v>117654.9996643739</v>
+        <v>2015088.719578466</v>
       </c>
       <c r="J14" t="n">
-        <v>-79118.10917850675</v>
+        <v>1696952.444689336</v>
       </c>
       <c r="K14" t="n">
-        <v>540674.787247001</v>
+        <v>2037738.683843702</v>
       </c>
       <c r="L14" t="n">
-        <v>-185806.5334491967</v>
+        <v>2730622.620836303</v>
       </c>
       <c r="M14" t="n">
-        <v>12930.26344546748</v>
+        <v>1226691.475911286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1370084.064006575</v>
+        <v>4561346.494530191</v>
       </c>
       <c r="C15" t="n">
-        <v>1083502.813601332</v>
+        <v>5482388.904751142</v>
       </c>
       <c r="D15" t="n">
-        <v>1135643.528278555</v>
+        <v>5772830.322682626</v>
       </c>
       <c r="E15" t="n">
-        <v>1363118.990138803</v>
+        <v>4410100.484870276</v>
       </c>
       <c r="F15" t="n">
-        <v>1145075.272925833</v>
+        <v>4788880.131550407</v>
       </c>
       <c r="G15" t="n">
-        <v>1553757.53473968</v>
+        <v>4182658.776445911</v>
       </c>
       <c r="H15" t="n">
-        <v>1206374.488241985</v>
+        <v>5858550.970561974</v>
       </c>
       <c r="I15" t="n">
-        <v>1638793.251453699</v>
+        <v>5721389.363864904</v>
       </c>
       <c r="J15" t="n">
-        <v>1432957.436874563</v>
+        <v>5625423.867624067</v>
       </c>
       <c r="K15" t="n">
-        <v>1105673.914095817</v>
+        <v>6771843.856012755</v>
       </c>
       <c r="L15" t="n">
-        <v>1034354.354518089</v>
+        <v>6674761.11372214</v>
       </c>
       <c r="M15" t="n">
-        <v>2511061.940247973</v>
+        <v>5589786.483360996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1490013.714547242</v>
+        <v>6911832.93157928</v>
       </c>
       <c r="C16" t="n">
-        <v>1629551.882170995</v>
+        <v>4625212.07111568</v>
       </c>
       <c r="D16" t="n">
-        <v>1576712.898919703</v>
+        <v>9635940.23827732</v>
       </c>
       <c r="E16" t="n">
-        <v>1614037.950483533</v>
+        <v>6694704.610423479</v>
       </c>
       <c r="F16" t="n">
-        <v>1644315.151625814</v>
+        <v>8446340.280185012</v>
       </c>
       <c r="G16" t="n">
-        <v>1635834.403607553</v>
+        <v>8138910.853720915</v>
       </c>
       <c r="H16" t="n">
-        <v>1829946.579812719</v>
+        <v>7565046.576655786</v>
       </c>
       <c r="I16" t="n">
-        <v>1720934.119921242</v>
+        <v>9742049.717652377</v>
       </c>
       <c r="J16" t="n">
-        <v>1704591.523204103</v>
+        <v>10068380.38948931</v>
       </c>
       <c r="K16" t="n">
-        <v>1832713.496888148</v>
+        <v>10572737.94017722</v>
       </c>
       <c r="L16" t="n">
-        <v>1697405.60659038</v>
+        <v>11329724.37262106</v>
       </c>
       <c r="M16" t="n">
-        <v>2475603.186290659</v>
+        <v>8220136.153524403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6150139.162012861</v>
+        <v>6497094.909879505</v>
       </c>
       <c r="C17" t="n">
-        <v>6116515.284434412</v>
+        <v>4945602.422537358</v>
       </c>
       <c r="D17" t="n">
-        <v>6015925.603535232</v>
+        <v>5165636.631358809</v>
       </c>
       <c r="E17" t="n">
-        <v>6054036.265462486</v>
+        <v>5285935.489933509</v>
       </c>
       <c r="F17" t="n">
-        <v>5706776.026627141</v>
+        <v>5793044.0471089</v>
       </c>
       <c r="G17" t="n">
-        <v>5971916.584260311</v>
+        <v>6088578.684266596</v>
       </c>
       <c r="H17" t="n">
-        <v>6981855.691033379</v>
+        <v>6101470.818245607</v>
       </c>
       <c r="I17" t="n">
-        <v>7178645.550231548</v>
+        <v>6421754.428875931</v>
       </c>
       <c r="J17" t="n">
-        <v>7462076.588118811</v>
+        <v>6979032.183589194</v>
       </c>
       <c r="K17" t="n">
-        <v>6935864.573963461</v>
+        <v>7252727.224176534</v>
       </c>
       <c r="L17" t="n">
-        <v>7109540.578567481</v>
+        <v>6811861.114115255</v>
       </c>
       <c r="M17" t="n">
-        <v>6639389.138180621</v>
+        <v>5811404.022857467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-207637.8083392992</v>
+        <v>4395956.122557798</v>
       </c>
       <c r="C18" t="n">
-        <v>168470.1069232939</v>
+        <v>3524190.747231921</v>
       </c>
       <c r="D18" t="n">
-        <v>345293.6848038021</v>
+        <v>3531425.848854452</v>
       </c>
       <c r="E18" t="n">
-        <v>448086.5099616147</v>
+        <v>4612137.736755367</v>
       </c>
       <c r="F18" t="n">
-        <v>2115.020023172896</v>
+        <v>4138688.294774563</v>
       </c>
       <c r="G18" t="n">
-        <v>172569.1029942784</v>
+        <v>3277075.357289179</v>
       </c>
       <c r="H18" t="n">
-        <v>-362691.5472737456</v>
+        <v>3531337.422905552</v>
       </c>
       <c r="I18" t="n">
-        <v>-138803.7694741449</v>
+        <v>4097505.324527762</v>
       </c>
       <c r="J18" t="n">
-        <v>-256549.2862963465</v>
+        <v>3692069.630277089</v>
       </c>
       <c r="K18" t="n">
-        <v>-364196.5146097843</v>
+        <v>3808228.51563123</v>
       </c>
       <c r="L18" t="n">
-        <v>-259817.2420185429</v>
+        <v>3783931.46347606</v>
       </c>
       <c r="M18" t="n">
-        <v>690922.1987844737</v>
+        <v>3440815.674411313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-167.9767473833053</v>
+        <v>6667589.84871805</v>
       </c>
       <c r="C19" t="n">
-        <v>37130.10267761083</v>
+        <v>8064851.934192247</v>
       </c>
       <c r="D19" t="n">
-        <v>138515.9484625409</v>
+        <v>5792112.459619583</v>
       </c>
       <c r="E19" t="n">
-        <v>-3372.007690040453</v>
+        <v>5361198.255890531</v>
       </c>
       <c r="F19" t="n">
-        <v>50588.15984765246</v>
+        <v>6030299.748566333</v>
       </c>
       <c r="G19" t="n">
-        <v>-36761.33595340218</v>
+        <v>7171248.403507744</v>
       </c>
       <c r="H19" t="n">
-        <v>11584.86379602062</v>
+        <v>8677410.675419522</v>
       </c>
       <c r="I19" t="n">
-        <v>-34938.55017141801</v>
+        <v>6542106.451135695</v>
       </c>
       <c r="J19" t="n">
-        <v>102305.3407044366</v>
+        <v>8272543.036051051</v>
       </c>
       <c r="K19" t="n">
-        <v>-22566.31687317029</v>
+        <v>7385036.708008433</v>
       </c>
       <c r="L19" t="n">
-        <v>-50165.22658460774</v>
+        <v>7231214.530068458</v>
       </c>
       <c r="M19" t="n">
-        <v>42979.97951954187</v>
+        <v>6370398.729739964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>867571.9667862857</v>
+        <v>2300432.982679135</v>
       </c>
       <c r="C20" t="n">
-        <v>2533424.659541443</v>
+        <v>2911741.783554056</v>
       </c>
       <c r="D20" t="n">
-        <v>2163490.684669151</v>
+        <v>655269.4559918665</v>
       </c>
       <c r="E20" t="n">
-        <v>2278896.855069249</v>
+        <v>1092477.276873433</v>
       </c>
       <c r="F20" t="n">
-        <v>2220942.561714954</v>
+        <v>1738519.430735216</v>
       </c>
       <c r="G20" t="n">
-        <v>2640024.596234887</v>
+        <v>855387.7350814453</v>
       </c>
       <c r="H20" t="n">
-        <v>1997513.536685239</v>
+        <v>683312.3551152622</v>
       </c>
       <c r="I20" t="n">
-        <v>2494558.40902931</v>
+        <v>1166550.74274367</v>
       </c>
       <c r="J20" t="n">
-        <v>2858980.109548649</v>
+        <v>1687953.034311559</v>
       </c>
       <c r="K20" t="n">
-        <v>2280090.14370481</v>
+        <v>1519103.388111978</v>
       </c>
       <c r="L20" t="n">
-        <v>2471861.112889557</v>
+        <v>408317.1644432313</v>
       </c>
       <c r="M20" t="n">
-        <v>2447904.230053051</v>
+        <v>646682.4724254073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1273458.967795877</v>
+        <v>3328437.621393914</v>
       </c>
       <c r="C21" t="n">
-        <v>2274831.972195806</v>
+        <v>3514410.646386651</v>
       </c>
       <c r="D21" t="n">
-        <v>1594313.06718347</v>
+        <v>3806391.623775846</v>
       </c>
       <c r="E21" t="n">
-        <v>2274558.337733157</v>
+        <v>3849899.345842474</v>
       </c>
       <c r="F21" t="n">
-        <v>2715008.94196065</v>
+        <v>4201661.277004313</v>
       </c>
       <c r="G21" t="n">
-        <v>1732649.18728275</v>
+        <v>3613183.564749885</v>
       </c>
       <c r="H21" t="n">
-        <v>1988915.500596928</v>
+        <v>3582000.543695312</v>
       </c>
       <c r="I21" t="n">
-        <v>1810122.622671968</v>
+        <v>3301858.883286786</v>
       </c>
       <c r="J21" t="n">
-        <v>1508313.978691362</v>
+        <v>4047603.126534943</v>
       </c>
       <c r="K21" t="n">
-        <v>2371442.884390555</v>
+        <v>4405376.747981522</v>
       </c>
       <c r="L21" t="n">
-        <v>1917180.899044915</v>
+        <v>4861908.771967619</v>
       </c>
       <c r="M21" t="n">
-        <v>1933443.171460659</v>
+        <v>3694778.870145347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437485.2829278628</v>
+        <v>9931361.103374258</v>
       </c>
       <c r="C22" t="n">
-        <v>-283954.8937476942</v>
+        <v>11930612.09516457</v>
       </c>
       <c r="D22" t="n">
-        <v>562612.4896378131</v>
+        <v>13451454.12575941</v>
       </c>
       <c r="E22" t="n">
-        <v>176877.3108445121</v>
+        <v>12144580.39693893</v>
       </c>
       <c r="F22" t="n">
-        <v>-432079.0152804013</v>
+        <v>15322834.98885665</v>
       </c>
       <c r="G22" t="n">
-        <v>-573541.5568568723</v>
+        <v>12932574.00373413</v>
       </c>
       <c r="H22" t="n">
-        <v>-1041422.266474348</v>
+        <v>12549945.02992217</v>
       </c>
       <c r="I22" t="n">
-        <v>-1228949.358642664</v>
+        <v>16716888.38940866</v>
       </c>
       <c r="J22" t="n">
-        <v>-1230516.109455002</v>
+        <v>14381703.33407805</v>
       </c>
       <c r="K22" t="n">
-        <v>-1144420.851658906</v>
+        <v>15961609.71192992</v>
       </c>
       <c r="L22" t="n">
-        <v>-595491.4318011885</v>
+        <v>13950206.8059399</v>
       </c>
       <c r="M22" t="n">
-        <v>-148822.8577931584</v>
+        <v>11252945.58522101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-41551.38142231145</v>
+        <v>8239618.347624244</v>
       </c>
       <c r="C23" t="n">
-        <v>-1220.180587519375</v>
+        <v>7781335.950532781</v>
       </c>
       <c r="D23" t="n">
-        <v>9466.262420968815</v>
+        <v>7435886.313395075</v>
       </c>
       <c r="E23" t="n">
-        <v>-120945.3284373887</v>
+        <v>6214612.70191535</v>
       </c>
       <c r="F23" t="n">
-        <v>-55003.33993207115</v>
+        <v>7429586.866529341</v>
       </c>
       <c r="G23" t="n">
-        <v>-134361.9758493948</v>
+        <v>7488470.414869081</v>
       </c>
       <c r="H23" t="n">
-        <v>-129830.1145205058</v>
+        <v>10173993.76122675</v>
       </c>
       <c r="I23" t="n">
-        <v>-132480.5640996328</v>
+        <v>8640820.283853374</v>
       </c>
       <c r="J23" t="n">
-        <v>-130397.9056897556</v>
+        <v>7415152.284709061</v>
       </c>
       <c r="K23" t="n">
-        <v>-132187.9536099489</v>
+        <v>8262502.871986804</v>
       </c>
       <c r="L23" t="n">
-        <v>-123668.5664263841</v>
+        <v>6970753.963394098</v>
       </c>
       <c r="M23" t="n">
-        <v>62671.51650432135</v>
+        <v>4263415.950220848</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10723070.65178185</v>
+        <v>11105766.96755818</v>
       </c>
       <c r="C24" t="n">
-        <v>14078468.44926694</v>
+        <v>12094884.20958452</v>
       </c>
       <c r="D24" t="n">
-        <v>16478524.15659926</v>
+        <v>12836523.41387823</v>
       </c>
       <c r="E24" t="n">
-        <v>15225900.19873695</v>
+        <v>10115341.96363167</v>
       </c>
       <c r="F24" t="n">
-        <v>14727448.20181319</v>
+        <v>11404188.7794116</v>
       </c>
       <c r="G24" t="n">
-        <v>14802548.5812348</v>
+        <v>11974584.60902177</v>
       </c>
       <c r="H24" t="n">
-        <v>15393119.20420546</v>
+        <v>10351565.64447123</v>
       </c>
       <c r="I24" t="n">
-        <v>14130177.54260609</v>
+        <v>11907127.98143272</v>
       </c>
       <c r="J24" t="n">
-        <v>14195379.53992135</v>
+        <v>11645077.68857481</v>
       </c>
       <c r="K24" t="n">
-        <v>14114226.61859585</v>
+        <v>14434402.84508597</v>
       </c>
       <c r="L24" t="n">
-        <v>15008749.04248834</v>
+        <v>15025657.83695962</v>
       </c>
       <c r="M24" t="n">
-        <v>16625919.10738237</v>
+        <v>10750374.04624232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1706955.650620958</v>
+        <v>4499983.217460706</v>
       </c>
       <c r="C25" t="n">
-        <v>3034054.740050764</v>
+        <v>5408174.983987384</v>
       </c>
       <c r="D25" t="n">
-        <v>2898624.18755238</v>
+        <v>5089536.378198844</v>
       </c>
       <c r="E25" t="n">
-        <v>2687717.90655667</v>
+        <v>3869389.11491834</v>
       </c>
       <c r="F25" t="n">
-        <v>2553973.299781065</v>
+        <v>4311756.053235329</v>
       </c>
       <c r="G25" t="n">
-        <v>2517971.243823117</v>
+        <v>4856119.743469079</v>
       </c>
       <c r="H25" t="n">
-        <v>2595122.164672718</v>
+        <v>5618342.274904059</v>
       </c>
       <c r="I25" t="n">
-        <v>2643174.951608611</v>
+        <v>5411182.634148465</v>
       </c>
       <c r="J25" t="n">
-        <v>2190211.257445131</v>
+        <v>5345216.838952252</v>
       </c>
       <c r="K25" t="n">
-        <v>3068571.912635256</v>
+        <v>5275570.28757355</v>
       </c>
       <c r="L25" t="n">
-        <v>2940170.349994196</v>
+        <v>5347691.67760347</v>
       </c>
       <c r="M25" t="n">
-        <v>2659695.992405501</v>
+        <v>3748557.497044124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10944270.90900427</v>
+        <v>11261214.14445062</v>
       </c>
       <c r="C26" t="n">
-        <v>11702555.41446202</v>
+        <v>9153122.705042018</v>
       </c>
       <c r="D26" t="n">
-        <v>13202901.69431637</v>
+        <v>6320503.859491337</v>
       </c>
       <c r="E26" t="n">
-        <v>14788044.38346237</v>
+        <v>7618023.3595195</v>
       </c>
       <c r="F26" t="n">
-        <v>14068843.96183399</v>
+        <v>6600104.028928505</v>
       </c>
       <c r="G26" t="n">
-        <v>14963829.54659403</v>
+        <v>6759842.648041688</v>
       </c>
       <c r="H26" t="n">
-        <v>13783064.59680897</v>
+        <v>8402207.323494587</v>
       </c>
       <c r="I26" t="n">
-        <v>14113389.48054889</v>
+        <v>9124645.222632486</v>
       </c>
       <c r="J26" t="n">
-        <v>13077900.86376463</v>
+        <v>8820953.879802829</v>
       </c>
       <c r="K26" t="n">
-        <v>13254708.33062643</v>
+        <v>8531874.449055485</v>
       </c>
       <c r="L26" t="n">
-        <v>13275696.35208556</v>
+        <v>9916584.604128143</v>
       </c>
       <c r="M26" t="n">
-        <v>15122963.67907663</v>
+        <v>6530027.700997884</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9944928.983975483</v>
+        <v>3482010.61249583</v>
       </c>
       <c r="C27" t="n">
-        <v>5563284.441662204</v>
+        <v>3573784.467664232</v>
       </c>
       <c r="D27" t="n">
-        <v>11922949.92514202</v>
+        <v>2993536.723806505</v>
       </c>
       <c r="E27" t="n">
-        <v>11536731.60954949</v>
+        <v>2821917.421576415</v>
       </c>
       <c r="F27" t="n">
-        <v>16590963.46538337</v>
+        <v>2826049.202196565</v>
       </c>
       <c r="G27" t="n">
-        <v>17682882.50380168</v>
+        <v>4233905.548230244</v>
       </c>
       <c r="H27" t="n">
-        <v>17415113.95397526</v>
+        <v>3568806.648223502</v>
       </c>
       <c r="I27" t="n">
-        <v>20933165.77822261</v>
+        <v>3602415.751352263</v>
       </c>
       <c r="J27" t="n">
-        <v>13433287.10205036</v>
+        <v>3541883.434459104</v>
       </c>
       <c r="K27" t="n">
-        <v>30572186.50398672</v>
+        <v>3829839.1136536</v>
       </c>
       <c r="L27" t="n">
-        <v>21527654.57976945</v>
+        <v>5433268.298926311</v>
       </c>
       <c r="M27" t="n">
-        <v>24255446.29005474</v>
+        <v>3417246.006623951</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19643102.3265811</v>
+        <v>13637999.63624194</v>
       </c>
       <c r="C28" t="n">
-        <v>21116171.07322208</v>
+        <v>13494458.78510228</v>
       </c>
       <c r="D28" t="n">
-        <v>21400297.12353837</v>
+        <v>11038458.16758337</v>
       </c>
       <c r="E28" t="n">
-        <v>21988713.90283704</v>
+        <v>10007143.33366517</v>
       </c>
       <c r="F28" t="n">
-        <v>20522261.55579644</v>
+        <v>11634179.64793023</v>
       </c>
       <c r="G28" t="n">
-        <v>21511034.68716964</v>
+        <v>15059560.97936581</v>
       </c>
       <c r="H28" t="n">
-        <v>21382762.50755893</v>
+        <v>13188749.46106038</v>
       </c>
       <c r="I28" t="n">
-        <v>21012519.90228244</v>
+        <v>9996229.237410735</v>
       </c>
       <c r="J28" t="n">
-        <v>20963879.16356638</v>
+        <v>9525659.499297479</v>
       </c>
       <c r="K28" t="n">
-        <v>21794978.82965643</v>
+        <v>9070563.136272667</v>
       </c>
       <c r="L28" t="n">
-        <v>21560423.88893542</v>
+        <v>12599965.58226778</v>
       </c>
       <c r="M28" t="n">
-        <v>23188500.82165735</v>
+        <v>10517293.55889458</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21267682.86581435</v>
+        <v>2000007.284451925</v>
       </c>
       <c r="C29" t="n">
-        <v>21966361.80543768</v>
+        <v>2348176.954434777</v>
       </c>
       <c r="D29" t="n">
-        <v>21258668.48175051</v>
+        <v>2637219.366931169</v>
       </c>
       <c r="E29" t="n">
-        <v>22259269.73366669</v>
+        <v>2622373.315146012</v>
       </c>
       <c r="F29" t="n">
-        <v>22294058.86159193</v>
+        <v>3105531.133042934</v>
       </c>
       <c r="G29" t="n">
-        <v>23246694.60291561</v>
+        <v>3011282.034235929</v>
       </c>
       <c r="H29" t="n">
-        <v>24616556.28982352</v>
+        <v>3078376.118490833</v>
       </c>
       <c r="I29" t="n">
-        <v>26146983.09603113</v>
+        <v>3170569.629080622</v>
       </c>
       <c r="J29" t="n">
-        <v>28777478.31183922</v>
+        <v>2927540.652798011</v>
       </c>
       <c r="K29" t="n">
-        <v>32938326.23017908</v>
+        <v>2972137.381981569</v>
       </c>
       <c r="L29" t="n">
-        <v>33052936.40598319</v>
+        <v>2734915.97390133</v>
       </c>
       <c r="M29" t="n">
-        <v>29224257.29958342</v>
+        <v>3199374.769588151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41195517.54119785</v>
+        <v>606674.2888538303</v>
       </c>
       <c r="C30" t="n">
-        <v>45769062.62322904</v>
+        <v>399953.9328188983</v>
       </c>
       <c r="D30" t="n">
-        <v>40054033.77349302</v>
+        <v>963885.5361677813</v>
       </c>
       <c r="E30" t="n">
-        <v>44534823.10072821</v>
+        <v>648349.1965213729</v>
       </c>
       <c r="F30" t="n">
-        <v>41726154.80223708</v>
+        <v>509248.912094033</v>
       </c>
       <c r="G30" t="n">
-        <v>46129215.71706738</v>
+        <v>861778.4607640798</v>
       </c>
       <c r="H30" t="n">
-        <v>50783403.78424624</v>
+        <v>865071.7128858805</v>
       </c>
       <c r="I30" t="n">
-        <v>44960295.12748143</v>
+        <v>651591.2120519748</v>
       </c>
       <c r="J30" t="n">
-        <v>48550195.43283109</v>
+        <v>839773.8173574902</v>
       </c>
       <c r="K30" t="n">
-        <v>55217549.42885661</v>
+        <v>859469.0467316704</v>
       </c>
       <c r="L30" t="n">
-        <v>54337330.96156357</v>
+        <v>1844625.632213558</v>
       </c>
       <c r="M30" t="n">
-        <v>45256866.43878079</v>
+        <v>920354.3398571974</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38431337.21866836</v>
+        <v>2474266.009191542</v>
       </c>
       <c r="C31" t="n">
-        <v>39373577.32900843</v>
+        <v>2297049.559033142</v>
       </c>
       <c r="D31" t="n">
-        <v>33214183.98319353</v>
+        <v>1716974.257436335</v>
       </c>
       <c r="E31" t="n">
-        <v>37727992.7281449</v>
+        <v>1525790.080266248</v>
       </c>
       <c r="F31" t="n">
-        <v>33789207.458174</v>
+        <v>1474576.049665459</v>
       </c>
       <c r="G31" t="n">
-        <v>38030335.82635198</v>
+        <v>1233210.386144966</v>
       </c>
       <c r="H31" t="n">
-        <v>43389703.88782614</v>
+        <v>1246459.757614074</v>
       </c>
       <c r="I31" t="n">
-        <v>45219835.73292524</v>
+        <v>1296550.393417469</v>
       </c>
       <c r="J31" t="n">
-        <v>46089217.16540174</v>
+        <v>1412807.41253462</v>
       </c>
       <c r="K31" t="n">
-        <v>44676006.9205382</v>
+        <v>1339333.006230153</v>
       </c>
       <c r="L31" t="n">
-        <v>41402619.9241368</v>
+        <v>1766144.66430067</v>
       </c>
       <c r="M31" t="n">
-        <v>39819502.37892105</v>
+        <v>2428388.939605793</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1517561.592806238</v>
+        <v>1568245.008248943</v>
       </c>
       <c r="C32" t="n">
-        <v>1698786.213789806</v>
+        <v>1801743.796285585</v>
       </c>
       <c r="D32" t="n">
-        <v>1832126.862029142</v>
+        <v>1865723.259649347</v>
       </c>
       <c r="E32" t="n">
-        <v>1802149.438672096</v>
+        <v>1779160.937556149</v>
       </c>
       <c r="F32" t="n">
-        <v>1710770.827704953</v>
+        <v>1786962.822404387</v>
       </c>
       <c r="G32" t="n">
-        <v>2348104.12183162</v>
+        <v>1969871.345435281</v>
       </c>
       <c r="H32" t="n">
-        <v>3489380.27153657</v>
+        <v>1968795.72952637</v>
       </c>
       <c r="I32" t="n">
-        <v>2324163.932295232</v>
+        <v>1960104.564963041</v>
       </c>
       <c r="J32" t="n">
-        <v>2538233.131351194</v>
+        <v>2017895.394600655</v>
       </c>
       <c r="K32" t="n">
-        <v>2220657.775632744</v>
+        <v>1778474.76026806</v>
       </c>
       <c r="L32" t="n">
-        <v>2560843.030071438</v>
+        <v>2066432.980226321</v>
       </c>
       <c r="M32" t="n">
-        <v>3252505.085894457</v>
+        <v>1667656.744669822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5020341.429501745</v>
+        <v>2822176.759697188</v>
       </c>
       <c r="C33" t="n">
-        <v>4904358.678696215</v>
+        <v>2970001.374078798</v>
       </c>
       <c r="D33" t="n">
-        <v>5709115.652251123</v>
+        <v>2964449.183194484</v>
       </c>
       <c r="E33" t="n">
-        <v>6014276.041559514</v>
+        <v>2928573.125184536</v>
       </c>
       <c r="F33" t="n">
-        <v>4696608.66006227</v>
+        <v>3295878.363795331</v>
       </c>
       <c r="G33" t="n">
-        <v>5048618.105551651</v>
+        <v>3515537.325912224</v>
       </c>
       <c r="H33" t="n">
-        <v>4449668.508881968</v>
+        <v>3422724.716723811</v>
       </c>
       <c r="I33" t="n">
-        <v>6031362.397946741</v>
+        <v>3490321.867014932</v>
       </c>
       <c r="J33" t="n">
-        <v>5857407.651365145</v>
+        <v>3278640.101721528</v>
       </c>
       <c r="K33" t="n">
-        <v>5804290.28962592</v>
+        <v>3161864.504385398</v>
       </c>
       <c r="L33" t="n">
-        <v>6891208.784298342</v>
+        <v>3473261.086362961</v>
       </c>
       <c r="M33" t="n">
-        <v>6782291.971219167</v>
+        <v>3479509.286576431</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10971080.43247803</v>
+        <v>3062365.933445766</v>
       </c>
       <c r="C34" t="n">
-        <v>9391674.054000283</v>
+        <v>3120620.591561015</v>
       </c>
       <c r="D34" t="n">
-        <v>9231998.832597077</v>
+        <v>3236564.697548306</v>
       </c>
       <c r="E34" t="n">
-        <v>11952794.55205474</v>
+        <v>3373166.375551465</v>
       </c>
       <c r="F34" t="n">
-        <v>10466557.59904213</v>
+        <v>3442046.232436525</v>
       </c>
       <c r="G34" t="n">
-        <v>11195445.26611714</v>
+        <v>3273473.52025082</v>
       </c>
       <c r="H34" t="n">
-        <v>11825503.17769124</v>
+        <v>3677110.401790521</v>
       </c>
       <c r="I34" t="n">
-        <v>10767802.47645864</v>
+        <v>3538363.872357249</v>
       </c>
       <c r="J34" t="n">
-        <v>12813876.02536604</v>
+        <v>3898473.724469742</v>
       </c>
       <c r="K34" t="n">
-        <v>12683566.07113871</v>
+        <v>3461578.929257438</v>
       </c>
       <c r="L34" t="n">
-        <v>13226615.79046889</v>
+        <v>3742746.116482445</v>
       </c>
       <c r="M34" t="n">
-        <v>13739309.3020606</v>
+        <v>3347959.408491674</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5269477.294916799</v>
+        <v>1204364.251105848</v>
       </c>
       <c r="C35" t="n">
-        <v>6849389.000417119</v>
+        <v>1794144.280042018</v>
       </c>
       <c r="D35" t="n">
-        <v>5619881.324653001</v>
+        <v>1464301.294237023</v>
       </c>
       <c r="E35" t="n">
-        <v>5675486.638729815</v>
+        <v>1408273.84019353</v>
       </c>
       <c r="F35" t="n">
-        <v>5879133.890409132</v>
+        <v>1285101.93523424</v>
       </c>
       <c r="G35" t="n">
-        <v>6440140.094177013</v>
+        <v>1868379.609784967</v>
       </c>
       <c r="H35" t="n">
-        <v>6680709.01771355</v>
+        <v>1668894.592128322</v>
       </c>
       <c r="I35" t="n">
-        <v>6618934.900270023</v>
+        <v>1947327.400497788</v>
       </c>
       <c r="J35" t="n">
-        <v>7112146.072783219</v>
+        <v>1894683.690505467</v>
       </c>
       <c r="K35" t="n">
-        <v>7561735.570453985</v>
+        <v>1428850.461768024</v>
       </c>
       <c r="L35" t="n">
-        <v>7888152.408448442</v>
+        <v>1814789.384452198</v>
       </c>
       <c r="M35" t="n">
-        <v>7322558.024770656</v>
+        <v>1250276.252927716</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3462391.406805549</v>
+        <v>1188425.670121231</v>
       </c>
       <c r="C36" t="n">
-        <v>4339054.277526785</v>
+        <v>1061667.560589396</v>
       </c>
       <c r="D36" t="n">
-        <v>3397430.916888264</v>
+        <v>1205383.777662503</v>
       </c>
       <c r="E36" t="n">
-        <v>3500281.163842081</v>
+        <v>1122613.782751832</v>
       </c>
       <c r="F36" t="n">
-        <v>4611337.186923498</v>
+        <v>1402520.000394453</v>
       </c>
       <c r="G36" t="n">
-        <v>4021887.468033728</v>
+        <v>1245317.908141558</v>
       </c>
       <c r="H36" t="n">
-        <v>3235849.694953681</v>
+        <v>947757.9148561517</v>
       </c>
       <c r="I36" t="n">
-        <v>3411031.278075059</v>
+        <v>924171.8271893685</v>
       </c>
       <c r="J36" t="n">
-        <v>4003165.507840267</v>
+        <v>1058871.333321295</v>
       </c>
       <c r="K36" t="n">
-        <v>3613539.310680142</v>
+        <v>772661.779906515</v>
       </c>
       <c r="L36" t="n">
-        <v>3757619.216099035</v>
+        <v>764432.8382006566</v>
       </c>
       <c r="M36" t="n">
-        <v>3654772.89428602</v>
+        <v>841209.9999645064</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4146211.008065204</v>
+        <v>3012574.116943949</v>
       </c>
       <c r="C37" t="n">
-        <v>5816556.617929705</v>
+        <v>4355763.309076547</v>
       </c>
       <c r="D37" t="n">
-        <v>7298449.421253921</v>
+        <v>3821719.046486227</v>
       </c>
       <c r="E37" t="n">
-        <v>5005516.142418348</v>
+        <v>3301238.94017127</v>
       </c>
       <c r="F37" t="n">
-        <v>4507859.908921899</v>
+        <v>3425791.588691756</v>
       </c>
       <c r="G37" t="n">
-        <v>5109031.078764291</v>
+        <v>4093827.037927376</v>
       </c>
       <c r="H37" t="n">
-        <v>6540190.058435615</v>
+        <v>4569049.398067005</v>
       </c>
       <c r="I37" t="n">
-        <v>7925669.525716966</v>
+        <v>3778419.759783842</v>
       </c>
       <c r="J37" t="n">
-        <v>5709980.943915347</v>
+        <v>4409446.041149992</v>
       </c>
       <c r="K37" t="n">
-        <v>7473834.604042516</v>
+        <v>3926051.153821554</v>
       </c>
       <c r="L37" t="n">
-        <v>6534518.281085294</v>
+        <v>3184402.712113801</v>
       </c>
       <c r="M37" t="n">
-        <v>6413083.929286306</v>
+        <v>3239566.961978484</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429943.246816661</v>
+        <v>4673091.989154995</v>
       </c>
       <c r="C38" t="n">
-        <v>2682292.059732002</v>
+        <v>4194551.562455054</v>
       </c>
       <c r="D38" t="n">
-        <v>3086547.585040481</v>
+        <v>4551651.144869837</v>
       </c>
       <c r="E38" t="n">
-        <v>1003805.047647701</v>
+        <v>5039398.128828201</v>
       </c>
       <c r="F38" t="n">
-        <v>1501176.950414716</v>
+        <v>4668517.43246049</v>
       </c>
       <c r="G38" t="n">
-        <v>2189581.289300318</v>
+        <v>4920279.63409312</v>
       </c>
       <c r="H38" t="n">
-        <v>1312729.041797583</v>
+        <v>4823233.33995777</v>
       </c>
       <c r="I38" t="n">
-        <v>1027089.94884792</v>
+        <v>5624488.597660721</v>
       </c>
       <c r="J38" t="n">
-        <v>1422812.396080287</v>
+        <v>6077192.086575249</v>
       </c>
       <c r="K38" t="n">
-        <v>2106408.002004078</v>
+        <v>4630812.668508081</v>
       </c>
       <c r="L38" t="n">
-        <v>1921735.229274201</v>
+        <v>5752467.535114449</v>
       </c>
       <c r="M38" t="n">
-        <v>845070.1123049057</v>
+        <v>4158883.286383347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5801255.488211093</v>
+        <v>4457620.724935905</v>
       </c>
       <c r="C39" t="n">
-        <v>5335374.262091362</v>
+        <v>4880004.863877416</v>
       </c>
       <c r="D39" t="n">
-        <v>5678515.619655367</v>
+        <v>5213179.981618928</v>
       </c>
       <c r="E39" t="n">
-        <v>5954698.50730323</v>
+        <v>5376462.753752758</v>
       </c>
       <c r="F39" t="n">
-        <v>6004556.990193541</v>
+        <v>5388843.121828975</v>
       </c>
       <c r="G39" t="n">
-        <v>6360014.392409782</v>
+        <v>5553848.586898207</v>
       </c>
       <c r="H39" t="n">
-        <v>5816391.769137681</v>
+        <v>5712756.203589172</v>
       </c>
       <c r="I39" t="n">
-        <v>5715415.675058516</v>
+        <v>5305369.128575078</v>
       </c>
       <c r="J39" t="n">
-        <v>5385674.817104728</v>
+        <v>6350302.231397579</v>
       </c>
       <c r="K39" t="n">
-        <v>6036752.334405465</v>
+        <v>4997249.280700259</v>
       </c>
       <c r="L39" t="n">
-        <v>6580611.665307005</v>
+        <v>5232109.55064983</v>
       </c>
       <c r="M39" t="n">
-        <v>7088277.722489685</v>
+        <v>4796815.216525067</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10804660.18701194</v>
+        <v>4545914.178037644</v>
       </c>
       <c r="C40" t="n">
-        <v>10921199.12342113</v>
+        <v>5317612.846756738</v>
       </c>
       <c r="D40" t="n">
-        <v>12183816.49758494</v>
+        <v>5214037.003978707</v>
       </c>
       <c r="E40" t="n">
-        <v>13990661.55576299</v>
+        <v>5090763.410471285</v>
       </c>
       <c r="F40" t="n">
-        <v>12446954.94863207</v>
+        <v>5461263.924933126</v>
       </c>
       <c r="G40" t="n">
-        <v>15453601.74412303</v>
+        <v>5146881.494347182</v>
       </c>
       <c r="H40" t="n">
-        <v>13382697.54057003</v>
+        <v>5359901.419352598</v>
       </c>
       <c r="I40" t="n">
-        <v>12965550.70421489</v>
+        <v>5329355.681730724</v>
       </c>
       <c r="J40" t="n">
-        <v>16873997.99803452</v>
+        <v>5666040.99686881</v>
       </c>
       <c r="K40" t="n">
-        <v>15033998.4968664</v>
+        <v>5328033.993919018</v>
       </c>
       <c r="L40" t="n">
-        <v>16178873.41716637</v>
+        <v>5670311.241977832</v>
       </c>
       <c r="M40" t="n">
-        <v>14518448.63494384</v>
+        <v>4693983.624614</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3263226.025159308</v>
+        <v>2080199.487153681</v>
       </c>
       <c r="C41" t="n">
-        <v>7060355.88573184</v>
+        <v>2893018.999289153</v>
       </c>
       <c r="D41" t="n">
-        <v>6838964.407269044</v>
+        <v>3275425.014912199</v>
       </c>
       <c r="E41" t="n">
-        <v>6768496.800147522</v>
+        <v>2586075.704095265</v>
       </c>
       <c r="F41" t="n">
-        <v>5761281.993698705</v>
+        <v>2788977.7059315</v>
       </c>
       <c r="G41" t="n">
-        <v>6765425.706864298</v>
+        <v>3030001.285018797</v>
       </c>
       <c r="H41" t="n">
-        <v>6868113.07429248</v>
+        <v>2845285.162185605</v>
       </c>
       <c r="I41" t="n">
-        <v>9334550.704893416</v>
+        <v>3469471.971983812</v>
       </c>
       <c r="J41" t="n">
-        <v>7861781.776124403</v>
+        <v>3371446.599978345</v>
       </c>
       <c r="K41" t="n">
-        <v>6569300.038996367</v>
+        <v>2765862.281855037</v>
       </c>
       <c r="L41" t="n">
-        <v>7561665.979361279</v>
+        <v>3697250.480615551</v>
       </c>
       <c r="M41" t="n">
-        <v>6101446.511764573</v>
+        <v>2702524.755881983</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8553321.767488636</v>
+        <v>3352806.124217233</v>
       </c>
       <c r="C42" t="n">
-        <v>11034226.19007919</v>
+        <v>3521790.33209151</v>
       </c>
       <c r="D42" t="n">
-        <v>12084817.26503632</v>
+        <v>3682987.649639581</v>
       </c>
       <c r="E42" t="n">
-        <v>12866590.61840637</v>
+        <v>3702693.607837728</v>
       </c>
       <c r="F42" t="n">
-        <v>10084946.8645564</v>
+        <v>3788855.706143212</v>
       </c>
       <c r="G42" t="n">
-        <v>11397628.53577535</v>
+        <v>3754806.119236984</v>
       </c>
       <c r="H42" t="n">
-        <v>11941066.34292465</v>
+        <v>4425965.156364873</v>
       </c>
       <c r="I42" t="n">
-        <v>10304300.99423953</v>
+        <v>4873914.308272974</v>
       </c>
       <c r="J42" t="n">
-        <v>11884825.88614448</v>
+        <v>4423639.715095019</v>
       </c>
       <c r="K42" t="n">
-        <v>11607329.16365097</v>
+        <v>4345816.989239337</v>
       </c>
       <c r="L42" t="n">
-        <v>14450881.14021981</v>
+        <v>4184291.970687872</v>
       </c>
       <c r="M42" t="n">
-        <v>14983546.52296908</v>
+        <v>3103488.471648068</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3254438.195271018</v>
+        <v>2233067.933216517</v>
       </c>
       <c r="C43" t="n">
-        <v>4357701.654263598</v>
+        <v>3227951.147079603</v>
       </c>
       <c r="D43" t="n">
-        <v>5224425.448878915</v>
+        <v>3298001.280283914</v>
       </c>
       <c r="E43" t="n">
-        <v>4955711.787730278</v>
+        <v>3133897.059696079</v>
       </c>
       <c r="F43" t="n">
-        <v>3751860.820843333</v>
+        <v>3228707.878920777</v>
       </c>
       <c r="G43" t="n">
-        <v>4218467.893001904</v>
+        <v>3218435.069397408</v>
       </c>
       <c r="H43" t="n">
-        <v>4713353.926872379</v>
+        <v>3172851.53615241</v>
       </c>
       <c r="I43" t="n">
-        <v>5601313.030274212</v>
+        <v>2912142.149507056</v>
       </c>
       <c r="J43" t="n">
-        <v>5275391.217345226</v>
+        <v>3339462.468967258</v>
       </c>
       <c r="K43" t="n">
-        <v>5187714.047555308</v>
+        <v>3035244.786444979</v>
       </c>
       <c r="L43" t="n">
-        <v>5131244.968159536</v>
+        <v>3724518.819004383</v>
       </c>
       <c r="M43" t="n">
-        <v>5096873.532440078</v>
+        <v>2432238.388982657</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11772615.43786281</v>
+        <v>5189701.999360837</v>
       </c>
       <c r="C44" t="n">
-        <v>15938939.21214659</v>
+        <v>6450309.304114946</v>
       </c>
       <c r="D44" t="n">
-        <v>13405523.13103281</v>
+        <v>5237273.518064523</v>
       </c>
       <c r="E44" t="n">
-        <v>10699570.38556844</v>
+        <v>4700426.407166255</v>
       </c>
       <c r="F44" t="n">
-        <v>12230778.40958646</v>
+        <v>5342719.728218997</v>
       </c>
       <c r="G44" t="n">
-        <v>10930993.97601148</v>
+        <v>6339375.630996927</v>
       </c>
       <c r="H44" t="n">
-        <v>10780708.89168272</v>
+        <v>5444160.127005724</v>
       </c>
       <c r="I44" t="n">
-        <v>12368166.60633636</v>
+        <v>6327055.470831482</v>
       </c>
       <c r="J44" t="n">
-        <v>13138510.94619456</v>
+        <v>5571198.046232631</v>
       </c>
       <c r="K44" t="n">
-        <v>12820201.59883115</v>
+        <v>5911082.356212161</v>
       </c>
       <c r="L44" t="n">
-        <v>12811787.82235686</v>
+        <v>6752591.305096151</v>
       </c>
       <c r="M44" t="n">
-        <v>14083639.35832357</v>
+        <v>5399128.880810282</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4316985.845350923</v>
+        <v>2574148.000541953</v>
       </c>
       <c r="C45" t="n">
-        <v>5417774.217478551</v>
+        <v>3005666.659664257</v>
       </c>
       <c r="D45" t="n">
-        <v>5827759.557395434</v>
+        <v>3230637.875089552</v>
       </c>
       <c r="E45" t="n">
-        <v>5111018.995528247</v>
+        <v>3039037.719597601</v>
       </c>
       <c r="F45" t="n">
-        <v>4957624.097949894</v>
+        <v>2776560.471803672</v>
       </c>
       <c r="G45" t="n">
-        <v>4637309.037344914</v>
+        <v>3188337.156125202</v>
       </c>
       <c r="H45" t="n">
-        <v>5819680.290018815</v>
+        <v>3207614.551617414</v>
       </c>
       <c r="I45" t="n">
-        <v>5619481.982148133</v>
+        <v>3557599.487664919</v>
       </c>
       <c r="J45" t="n">
-        <v>5352948.914179277</v>
+        <v>3004686.163651906</v>
       </c>
       <c r="K45" t="n">
-        <v>5229707.193204895</v>
+        <v>3017936.797980861</v>
       </c>
       <c r="L45" t="n">
-        <v>5692421.798872746</v>
+        <v>3377893.172716355</v>
       </c>
       <c r="M45" t="n">
-        <v>6706586.326688644</v>
+        <v>2577817.145913074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9998935.028277194</v>
+        <v>1842370.332193299</v>
       </c>
       <c r="C46" t="n">
-        <v>14839483.21103963</v>
+        <v>2918656.53800038</v>
       </c>
       <c r="D46" t="n">
-        <v>14765304.0255706</v>
+        <v>2058781.703213739</v>
       </c>
       <c r="E46" t="n">
-        <v>12268118.82191966</v>
+        <v>2155330.592127827</v>
       </c>
       <c r="F46" t="n">
-        <v>11237871.91550973</v>
+        <v>2074770.233404949</v>
       </c>
       <c r="G46" t="n">
-        <v>12863720.66420071</v>
+        <v>2117814.520750102</v>
       </c>
       <c r="H46" t="n">
-        <v>16302116.60234871</v>
+        <v>1944201.324754632</v>
       </c>
       <c r="I46" t="n">
-        <v>14423451.97107675</v>
+        <v>3425778.883010406</v>
       </c>
       <c r="J46" t="n">
-        <v>11242425.91489992</v>
+        <v>2735758.442358304</v>
       </c>
       <c r="K46" t="n">
-        <v>10772609.47916891</v>
+        <v>1778813.912296508</v>
       </c>
       <c r="L46" t="n">
-        <v>10278574.19149465</v>
+        <v>2159199.260710401</v>
       </c>
       <c r="M46" t="n">
-        <v>13779639.20503401</v>
+        <v>1509372.923719814</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2177318.059210013</v>
+        <v>1740174.729098342</v>
       </c>
       <c r="C47" t="n">
-        <v>2304810.393641417</v>
+        <v>1971470.604866282</v>
       </c>
       <c r="D47" t="n">
-        <v>2659983.390202157</v>
+        <v>2536253.425698027</v>
       </c>
       <c r="E47" t="n">
-        <v>2913750.767442323</v>
+        <v>2951819.500971501</v>
       </c>
       <c r="F47" t="n">
-        <v>2920838.582273383</v>
+        <v>2626642.663551009</v>
       </c>
       <c r="G47" t="n">
-        <v>3300796.943573375</v>
+        <v>2909561.506778593</v>
       </c>
       <c r="H47" t="n">
-        <v>3274228.754571088</v>
+        <v>2808250.187019775</v>
       </c>
       <c r="I47" t="n">
-        <v>3159556.714267025</v>
+        <v>2957844.067438292</v>
       </c>
       <c r="J47" t="n">
-        <v>3269902.630928572</v>
+        <v>3248326.427241287</v>
       </c>
       <c r="K47" t="n">
-        <v>3159931.570524252</v>
+        <v>2839133.759154334</v>
       </c>
       <c r="L47" t="n">
-        <v>3260350.777540201</v>
+        <v>2888679.425854069</v>
       </c>
       <c r="M47" t="n">
-        <v>3036206.964761694</v>
+        <v>2981720.260827523</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>522752.5455906019</v>
+        <v>5190643.892576192</v>
       </c>
       <c r="C48" t="n">
-        <v>610978.5696338529</v>
+        <v>4912859.317671493</v>
       </c>
       <c r="D48" t="n">
-        <v>404653.6226139138</v>
+        <v>5206471.67594679</v>
       </c>
       <c r="E48" t="n">
-        <v>968575.6820355174</v>
+        <v>5166796.289687317</v>
       </c>
       <c r="F48" t="n">
-        <v>653126.7191207446</v>
+        <v>5014296.785216602</v>
       </c>
       <c r="G48" t="n">
-        <v>514054.0903749038</v>
+        <v>5213195.101682074</v>
       </c>
       <c r="H48" t="n">
-        <v>866444.846498342</v>
+        <v>5193140.539313849</v>
       </c>
       <c r="I48" t="n">
-        <v>869880.9820672233</v>
+        <v>5781392.953369508</v>
       </c>
       <c r="J48" t="n">
-        <v>656383.5248873177</v>
+        <v>6077615.669957762</v>
       </c>
       <c r="K48" t="n">
-        <v>844856.7318943056</v>
+        <v>5435794.374916445</v>
       </c>
       <c r="L48" t="n">
-        <v>864522.3125902718</v>
+        <v>5923037.78689383</v>
       </c>
       <c r="M48" t="n">
-        <v>1849704.040874117</v>
+        <v>5609075.017338605</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>884672.3064420011</v>
+        <v>822801.7268022248</v>
       </c>
       <c r="C49" t="n">
-        <v>917145.8466576897</v>
+        <v>1001066.51675265</v>
       </c>
       <c r="D49" t="n">
-        <v>1066538.252432849</v>
+        <v>976372.891512297</v>
       </c>
       <c r="E49" t="n">
-        <v>909483.3247675477</v>
+        <v>775643.1536152697</v>
       </c>
       <c r="F49" t="n">
-        <v>799061.2232975498</v>
+        <v>865243.0304231228</v>
       </c>
       <c r="G49" t="n">
-        <v>872546.4190918185</v>
+        <v>816416.3860677921</v>
       </c>
       <c r="H49" t="n">
-        <v>768648.6422243663</v>
+        <v>834468.6104140785</v>
       </c>
       <c r="I49" t="n">
-        <v>801393.4683323624</v>
+        <v>1232375.264788562</v>
       </c>
       <c r="J49" t="n">
-        <v>933784.5013457534</v>
+        <v>1220879.00769455</v>
       </c>
       <c r="K49" t="n">
-        <v>1037929.704134829</v>
+        <v>843419.4287234084</v>
       </c>
       <c r="L49" t="n">
-        <v>1048076.639592139</v>
+        <v>1116923.463032101</v>
       </c>
       <c r="M49" t="n">
-        <v>1266192.346793251</v>
+        <v>893159.6395409995</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1467738.684102301</v>
+        <v>2758941.515015833</v>
       </c>
       <c r="C50" t="n">
-        <v>1603451.899727953</v>
+        <v>2881504.371089883</v>
       </c>
       <c r="D50" t="n">
-        <v>1850637.503170909</v>
+        <v>3125839.683949354</v>
       </c>
       <c r="E50" t="n">
-        <v>1915139.331465274</v>
+        <v>2973916.107476188</v>
       </c>
       <c r="F50" t="n">
-        <v>1825886.774424307</v>
+        <v>3439154.884228866</v>
       </c>
       <c r="G50" t="n">
-        <v>1838781.518222152</v>
+        <v>3224108.455221037</v>
       </c>
       <c r="H50" t="n">
-        <v>2015045.164890425</v>
+        <v>3399108.949605534</v>
       </c>
       <c r="I50" t="n">
-        <v>2014482.489609974</v>
+        <v>3430806.717752911</v>
       </c>
       <c r="J50" t="n">
-        <v>2013769.093821111</v>
+        <v>3440584.876808821</v>
       </c>
       <c r="K50" t="n">
-        <v>2069773.945878653</v>
+        <v>3351150.273765613</v>
       </c>
       <c r="L50" t="n">
-        <v>1831357.411818855</v>
+        <v>3479380.937023993</v>
       </c>
       <c r="M50" t="n">
-        <v>2116348.083257391</v>
+        <v>3218932.19781306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2795057.877406825</v>
+        <v>3297827.738086734</v>
       </c>
       <c r="C51" t="n">
-        <v>2884864.291363948</v>
+        <v>3204858.773152562</v>
       </c>
       <c r="D51" t="n">
-        <v>3051093.270917065</v>
+        <v>3549501.499430768</v>
       </c>
       <c r="E51" t="n">
-        <v>3062162.312065234</v>
+        <v>3375121.53991925</v>
       </c>
       <c r="F51" t="n">
-        <v>2997478.534120817</v>
+        <v>3428072.423612917</v>
       </c>
       <c r="G51" t="n">
-        <v>3366266.144988912</v>
+        <v>3555686.519830198</v>
       </c>
       <c r="H51" t="n">
-        <v>3583364.57088307</v>
+        <v>3668588.89850272</v>
       </c>
       <c r="I51" t="n">
-        <v>3493583.466085483</v>
+        <v>4311086.260859833</v>
       </c>
       <c r="J51" t="n">
-        <v>3590641.95963162</v>
+        <v>4297882.967259246</v>
       </c>
       <c r="K51" t="n">
-        <v>3344510.316001639</v>
+        <v>4430032.59617951</v>
       </c>
       <c r="L51" t="n">
-        <v>3224528.094308446</v>
+        <v>4346320.230335953</v>
       </c>
       <c r="M51" t="n">
-        <v>3571146.342307996</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3409688.093653316</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3261231.056503428</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3418513.636399959</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3517985.625687252</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3656292.193007459</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3725141.127459973</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3557776.474358242</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3961871.529911317</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3819813.790590804</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4182188.146393277</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3742905.632492091</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4031951.347154291</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1568975.873011027</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1687962.880725635</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2196864.890496115</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1870413.568346863</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1812619.930586886</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1716436.257578335</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2273885.624841802</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2083316.067581057</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2348704.388139931</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2326463.802143491</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1884260.153926279</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2223963.22865954</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>875135.1912448768</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1190149.186084111</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1025872.499257016</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1182801.311483275</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1069115.614762604</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1371940.332529306</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1196062.377054053</v>
-      </c>
-      <c r="I54" t="n">
-        <v>880565.1960294992</v>
-      </c>
-      <c r="J54" t="n">
-        <v>866940.4048238695</v>
-      </c>
-      <c r="K54" t="n">
-        <v>950256.0403352305</v>
-      </c>
-      <c r="L54" t="n">
-        <v>691675.6850993293</v>
-      </c>
-      <c r="M54" t="n">
-        <v>658973.5497771462</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2803653.179966873</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3052431.793348286</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4424569.034529162</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3907746.232955454</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3378024.551826052</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3599668.797764238</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4162948.520606598</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4610601.809775405</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3866956.857013535</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4546621.152943968</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4047624.788029602</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3353668.269632033</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3979310.625852058</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4929828.18790348</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4439501.982431985</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4799633.200135991</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5342069.095289843</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4916072.935291679</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5223188.749724461</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5133363.398009489</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5964630.094163874</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6286990.061322866</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4883556.392167055</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5973492.579505384</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4378087.919955872</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4599286.995536407</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5185042.653795571</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5462000.947719839</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5643801.512487861</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5646450.537352343</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5805812.8488328</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5988643.787944622</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5538845.856906794</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6614927.186946452</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5228901.175565775</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5489597.980717552</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4190529.001604049</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4338774.797455306</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5380611.676907276</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5140419.476436449</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5259323.9528448</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5387938.237333539</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5110027.34342279</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5250545.021810889</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5093297.49064122</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5512964.609011983</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5046071.819000177</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5476526.043058817</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3328717.553561219</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2715570.371177509</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3342492.11956283</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3761674.46979797</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3167030.152642309</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3514109.376006487</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3550961.630355265</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3412844.080960702</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3989162.864137069</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3934936.120177512</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3324473.809535187</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4086191.301596645</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3008273.12924185</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3482142.63342789</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3637963.868379921</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3838988.536550841</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3941305.68621002</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3970745.815923998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3855875.035645654</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4595568.604334189</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5006626.895708413</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4570230.208175751</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4456556.737604088</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4282540.921482207</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1952861.760617878</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1914701.453451951</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3062147.433328207</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3141918.87832826</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3003784.103724399</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3142848.136433428</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3138921.220736372</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3084189.77657573</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2786342.622982639</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3265087.369946576</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2764760.911894758</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3650285.129136699</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5429443.521296137</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5844211.460461728</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6797731.07049028</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5988759.089985648</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5646281.862945783</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6115895.646300086</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6871480.563626391</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6272166.284182308</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7118188.420065349</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6494837.135852814</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6608610.500631091</v>
-      </c>
-      <c r="M62" t="n">
-        <v>7292318.849815278</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2454183.919204659</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2626731.223160989</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3055181.437540217</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3268240.96754459</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3061242.613288308</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2808596.426800376</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3241037.842676409</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3263131.232017794</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3631065.687675571</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3025548.290571321</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3134435.682259058</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3430243.056664813</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2149258.353305128</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2278521.529673573</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3238768.528530024</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2423453.63359065</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2522106.969518884</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2446756.844356044</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2487607.928333956</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2340653.356286529</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3661282.203481962</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3069989.183054811</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2167135.995542037</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2534550.776311151</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2377994.134341042</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2444075.14877691</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2617376.849125118</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3195677.492500645</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3533966.079795144</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3207605.07960477</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3461408.669862989</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3372086.273863668</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3529129.261449358</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3824017.983939959</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3438866.670705592</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3492280.046093641</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5318543.05282614</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5503752.69322566</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5477334.538714707</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5869824.410790118</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5673037.067025263</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5495847.822225775</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5822880.338648525</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5678090.781595142</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6321585.063046214</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6760221.902973724</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5874831.033520847</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6484523.647708992</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>825038.7443653831</v>
-      </c>
-      <c r="C67" t="n">
-        <v>961146.217309623</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1152573.040721597</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1148705.244814453</v>
-      </c>
-      <c r="F67" t="n">
-        <v>970120.0171783756</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1052351.222919113</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1021264.705209965</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1037771.983545443</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1398522.904584795</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1373990.774382747</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1044023.268425802</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1286556.498786868</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2750104.982821166</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2882531.313565941</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3016800.16487749</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3262226.377678625</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3103099.043934007</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3569639.401541494</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3348245.907550287</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3523150.116247815</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3560263.238376542</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3568211.509606042</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3474622.264721218</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3599971.509750815</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2634356.424268934</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2923109.914475349</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2849761.064046376</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3196813.080506897</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3020628.976217466</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3072125.79137971</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3206534.09920782</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3317531.345095086</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3985095.628749407</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3965017.392901953</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4105495.823984768</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4017850.599640241</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>48212741.18297088</v>
-      </c>
-      <c r="C70" t="n">
-        <v>53450032.73642977</v>
-      </c>
-      <c r="D70" t="n">
-        <v>57829123.99819585</v>
-      </c>
-      <c r="E70" t="n">
-        <v>62694466.64158225</v>
-      </c>
-      <c r="F70" t="n">
-        <v>68987219.86031687</v>
-      </c>
-      <c r="G70" t="n">
-        <v>78090234.09485868</v>
-      </c>
-      <c r="H70" t="n">
-        <v>87299134.00577299</v>
-      </c>
-      <c r="I70" t="n">
-        <v>101733438.4410312</v>
-      </c>
-      <c r="J70" t="n">
-        <v>110950299.9896326</v>
-      </c>
-      <c r="K70" t="n">
-        <v>126779510.0962449</v>
-      </c>
-      <c r="L70" t="n">
-        <v>127152917.0621384</v>
-      </c>
-      <c r="M70" t="n">
-        <v>145872345.2325901</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>21838549.45886596</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34033649.13765176</v>
-      </c>
-      <c r="D71" t="n">
-        <v>33673752.14408</v>
-      </c>
-      <c r="E71" t="n">
-        <v>35851644.88393854</v>
-      </c>
-      <c r="F71" t="n">
-        <v>39284493.39843001</v>
-      </c>
-      <c r="G71" t="n">
-        <v>38420766.02950693</v>
-      </c>
-      <c r="H71" t="n">
-        <v>38501230.29910936</v>
-      </c>
-      <c r="I71" t="n">
-        <v>39079088.05285102</v>
-      </c>
-      <c r="J71" t="n">
-        <v>39064960.78181037</v>
-      </c>
-      <c r="K71" t="n">
-        <v>40904953.35600097</v>
-      </c>
-      <c r="L71" t="n">
-        <v>45229203.7519401</v>
-      </c>
-      <c r="M71" t="n">
-        <v>70570336.12656485</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-981264.7818532481</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3434442.525703265</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4240608.153035736</v>
-      </c>
-      <c r="E72" t="n">
-        <v>856152.1002309513</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5611507.69481209</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-841061.3120568637</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2231285.798191978</v>
-      </c>
-      <c r="I72" t="n">
-        <v>113593.249068622</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-18663.77042772982</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-2284009.571311271</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1121057.436310506</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-1299562.300722603</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11338056.66415508</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12700615.30239755</v>
-      </c>
-      <c r="D73" t="n">
-        <v>13800684.06430546</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13137535.64966387</v>
-      </c>
-      <c r="F73" t="n">
-        <v>13645376.93907177</v>
-      </c>
-      <c r="G73" t="n">
-        <v>12492154.83951651</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13609540.24811856</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13103125.27518441</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12959887.52845159</v>
-      </c>
-      <c r="K73" t="n">
-        <v>13600609.99661245</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12613963.21156942</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15184642.62191601</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15195069.12560775</v>
-      </c>
-      <c r="C74" t="n">
-        <v>21885722.18399385</v>
-      </c>
-      <c r="D74" t="n">
-        <v>22272640.09214693</v>
-      </c>
-      <c r="E74" t="n">
-        <v>23253537.57065342</v>
-      </c>
-      <c r="F74" t="n">
-        <v>22632434.94336544</v>
-      </c>
-      <c r="G74" t="n">
-        <v>22388468.3048168</v>
-      </c>
-      <c r="H74" t="n">
-        <v>21814533.90772412</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21700986.28752687</v>
-      </c>
-      <c r="J74" t="n">
-        <v>21049137.52288052</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22349399.60829337</v>
-      </c>
-      <c r="L74" t="n">
-        <v>24017419.15500021</v>
-      </c>
-      <c r="M74" t="n">
-        <v>25402562.90984819</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23644654.19298665</v>
-      </c>
-      <c r="C75" t="n">
-        <v>23636614.45563506</v>
-      </c>
-      <c r="D75" t="n">
-        <v>29063969.20615822</v>
-      </c>
-      <c r="E75" t="n">
-        <v>29093334.91649115</v>
-      </c>
-      <c r="F75" t="n">
-        <v>32231100.55684124</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34641822.44063655</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33982414.72457419</v>
-      </c>
-      <c r="I75" t="n">
-        <v>36190906.89463439</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30086413.97358372</v>
-      </c>
-      <c r="K75" t="n">
-        <v>38253982.55609377</v>
-      </c>
-      <c r="L75" t="n">
-        <v>38113239.1294909</v>
-      </c>
-      <c r="M75" t="n">
-        <v>41231295.59208889</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19643102.3265811</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21116171.07322208</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21400297.12353837</v>
-      </c>
-      <c r="E76" t="n">
-        <v>21988713.90283704</v>
-      </c>
-      <c r="F76" t="n">
-        <v>20522261.55579644</v>
-      </c>
-      <c r="G76" t="n">
-        <v>21511034.68716964</v>
-      </c>
-      <c r="H76" t="n">
-        <v>21382762.50755893</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21012519.90228244</v>
-      </c>
-      <c r="J76" t="n">
-        <v>20963879.16356638</v>
-      </c>
-      <c r="K76" t="n">
-        <v>21794978.82965643</v>
-      </c>
-      <c r="L76" t="n">
-        <v>21560423.88893542</v>
-      </c>
-      <c r="M76" t="n">
-        <v>23188500.82165735</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22359447.2816143</v>
-      </c>
-      <c r="C77" t="n">
-        <v>22720388.08028786</v>
-      </c>
-      <c r="D77" t="n">
-        <v>23473964.58713879</v>
-      </c>
-      <c r="E77" t="n">
-        <v>24311214.56583371</v>
-      </c>
-      <c r="F77" t="n">
-        <v>25707175.85502755</v>
-      </c>
-      <c r="G77" t="n">
-        <v>26197176.77292006</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28906582.61764083</v>
-      </c>
-      <c r="I77" t="n">
-        <v>30544826.0410505</v>
-      </c>
-      <c r="J77" t="n">
-        <v>34315530.50349204</v>
-      </c>
-      <c r="K77" t="n">
-        <v>38163311.85424827</v>
-      </c>
-      <c r="L77" t="n">
-        <v>39287802.15026282</v>
-      </c>
-      <c r="M77" t="n">
-        <v>35295846.97597487</v>
+        <v>4177112.637754071</v>
       </c>
     </row>
   </sheetData>
